--- a/support/2025.xlsx
+++ b/support/2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcoc-my.sharepoint.com/personal/abates_rcoc_org/Documents/Desktop/Bids/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcoc-my.sharepoint.com/personal/abates_rcoc_org/Documents/Documents/GitHub/bidAnalysis/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{978749AA-162C-4573-B7C8-347562CDB573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{151FB1BE-0B19-412F-BE5E-4902B9B130E9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{978749AA-162C-4573-B7C8-347562CDB573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365704C2-D0E5-4798-AAD2-949D2B135DB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,33 +818,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -866,11 +840,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,659 +1283,659 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="26" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="26" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="26" t="s">
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="26" t="s">
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="26" t="s">
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="26" t="s">
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="26" t="s">
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
     </row>
     <row r="6" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="19" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="19" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="19" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="19" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="19" t="s">
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="19" t="s">
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="19" t="s">
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="19" t="s">
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="31"/>
+      <c r="AR6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="21"/>
+      <c r="AS6" s="30"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="31"/>
     </row>
     <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="19" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="21"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="31"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="31"/>
     </row>
     <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="19" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="19" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="19" t="s">
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="19" t="s">
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="19" t="s">
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="19" t="s">
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="19" t="s">
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="19" t="s">
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="31"/>
+      <c r="AR8" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="21"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="31"/>
     </row>
     <row r="9" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32">
         <v>40000</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="19" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="19" t="s">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="19" t="s">
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="19" t="s">
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="19" t="s">
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="22">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="32">
         <v>1000</v>
       </c>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="21"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="31"/>
     </row>
     <row r="10" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="19">
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="29">
         <v>60</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="19" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="19" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="19" t="s">
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="19" t="s">
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="19" t="s">
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="19" t="s">
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="19" t="s">
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="21"/>
-      <c r="AR10" s="19" t="s">
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="21"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="31"/>
     </row>
     <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="19">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="29">
         <v>50</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="19">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29">
         <v>50</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="19">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="29">
         <v>50</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="19">
-        <v>25</v>
-      </c>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="19" t="s">
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="29">
+        <v>25</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="19">
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="29">
         <v>50</v>
       </c>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="19" t="s">
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="21"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="31"/>
     </row>
     <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="19" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="19" t="s">
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="19" t="s">
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="19" t="s">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="19" t="s">
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="19" t="s">
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="19" t="s">
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="21"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="31"/>
     </row>
     <row r="13" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="19" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="21"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="21"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="31"/>
     </row>
     <row r="14" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="19" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="19" t="s">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="19" t="s">
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="19" t="s">
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="19" t="s">
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="21"/>
-      <c r="AH14" s="19" t="s">
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="31"/>
+      <c r="AH14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="19" t="s">
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
-      <c r="AP14" s="20"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="19" t="s">
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AS14" s="20"/>
-      <c r="AT14" s="20"/>
-      <c r="AU14" s="20"/>
-      <c r="AV14" s="21"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="31"/>
     </row>
     <row r="15" spans="1:48" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2448,81 +2448,167 @@
       <c r="AV18" s="13"/>
     </row>
     <row r="19" spans="1:48" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="25">
+      <c r="F19" s="33">
         <v>115750</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="18"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="25">
+      <c r="K19" s="33">
         <v>118830.8</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="18"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="25">
+      <c r="P19" s="33">
         <v>120170.4</v>
       </c>
-      <c r="Q19" s="25"/>
+      <c r="Q19" s="33"/>
       <c r="R19" s="18"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="24">
+      <c r="U19" s="34">
         <v>124100</v>
       </c>
-      <c r="V19" s="24"/>
+      <c r="V19" s="34"/>
       <c r="W19" s="18"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="24">
+      <c r="Z19" s="34">
         <v>130499</v>
       </c>
-      <c r="AA19" s="24"/>
+      <c r="AA19" s="34"/>
       <c r="AB19" s="18"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
-      <c r="AE19" s="24">
+      <c r="AE19" s="34">
         <v>136591.20000000001</v>
       </c>
-      <c r="AF19" s="24"/>
+      <c r="AF19" s="34"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="17"/>
-      <c r="AJ19" s="24">
+      <c r="AJ19" s="34">
         <v>148281.4</v>
       </c>
-      <c r="AK19" s="24"/>
+      <c r="AK19" s="34"/>
       <c r="AL19" s="18"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
-      <c r="AO19" s="24">
+      <c r="AO19" s="34">
         <v>149130</v>
       </c>
-      <c r="AP19" s="24"/>
+      <c r="AP19" s="34"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="17"/>
       <c r="AS19" s="17"/>
-      <c r="AT19" s="25">
+      <c r="AT19" s="33">
         <v>222408.8</v>
       </c>
-      <c r="AU19" s="25"/>
+      <c r="AU19" s="33"/>
       <c r="AV19" s="18"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="AR7:AV7"/>
+    <mergeCell ref="AR8:AV8"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="S10:W10"/>
+    <mergeCell ref="S11:W11"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="S14:W14"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="AJ20:AK20"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AT19:AU19"/>
+    <mergeCell ref="AR5:AV5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="AH8:AL8"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AH11:AL11"/>
+    <mergeCell ref="AH12:AL12"/>
+    <mergeCell ref="AH13:AL13"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AJ19:AK19"/>
+    <mergeCell ref="AM12:AQ12"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="AM11:AQ11"/>
+    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="AR12:AV12"/>
+    <mergeCell ref="AR13:AV13"/>
+    <mergeCell ref="AR14:AV14"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X14:AB14"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
@@ -2547,92 +2633,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="AJ20:AK20"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AT19:AU19"/>
-    <mergeCell ref="AR5:AV5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="AH12:AL12"/>
-    <mergeCell ref="AH13:AL13"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AJ19:AK19"/>
-    <mergeCell ref="AM12:AQ12"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="AM11:AQ11"/>
-    <mergeCell ref="AR11:AV11"/>
-    <mergeCell ref="AR12:AV12"/>
-    <mergeCell ref="AR13:AV13"/>
-    <mergeCell ref="AR14:AV14"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="S10:W10"/>
-    <mergeCell ref="S11:W11"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:W13"/>
-    <mergeCell ref="S14:W14"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="AR7:AV7"/>
-    <mergeCell ref="AR8:AV8"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AC14:AG14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
@@ -2647,13 +2647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -2668,7 +2666,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4406,11 +4404,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
